--- a/biology/Biologie cellulaire et moléculaire/Ronald_Vale/Ronald_Vale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Ronald_Vale/Ronald_Vale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronald Vale, né le 11 janvier 1959 à Hollywood[1], est un chimiste et biologiste américain. Chercheur spécialisé en cytologie, il travaille principalement, en chimiotaxie, sur les conversions à l'échelle nanométrique de l'énergie chimique en énergie mécanique, dont les kinésines et dynéines ainsi que leur comportement dans le cytosquelette. Il exerce comme professeur au sein de l'université de Californie à San Francisco, dans le département de pharmacologie cellulaire et moléculaire dont il est directeur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronald Vale, né le 11 janvier 1959 à Hollywood, est un chimiste et biologiste américain. Chercheur spécialisé en cytologie, il travaille principalement, en chimiotaxie, sur les conversions à l'échelle nanométrique de l'énergie chimique en énergie mécanique, dont les kinésines et dynéines ainsi que leur comportement dans le cytosquelette. Il exerce comme professeur au sein de l'université de Californie à San Francisco, dans le département de pharmacologie cellulaire et moléculaire dont il est directeur.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronald Vale est titulaire d'un Bachelor of Arts décerné par l'université de Californie à Santa Barbara, en biologie et chimie, ainsi que d'un Ph.D en neurosciences, décerné par l'université Stanford. Il a terminé son cursus par des études sur les systèmes micro-tubulaires au sein du Laboratoire de biologie marine du National Institutes of Health[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronald Vale est titulaire d'un Bachelor of Arts décerné par l'université de Californie à Santa Barbara, en biologie et chimie, ainsi que d'un Ph.D en neurosciences, décerné par l'université Stanford. Il a terminé son cursus par des études sur les systèmes micro-tubulaires au sein du Laboratoire de biologie marine du National Institutes of Health.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ronald Vale a reçu en 2012, conjointement avec Michael Sheetz et James Spudich, le prix Albert-Lasker pour la recherche médicale fondamentale pour ses travaux sur les protéines motrices du cytosquelette[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ronald Vale a reçu en 2012, conjointement avec Michael Sheetz et James Spudich, le prix Albert-Lasker pour la recherche médicale fondamentale pour ses travaux sur les protéines motrices du cytosquelette.
 </t>
         </is>
       </c>
